--- a/fathershop/topmenu_results.xlsx
+++ b/fathershop/topmenu_results.xlsx
@@ -506,27 +506,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -541,27 +543,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -576,27 +580,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -611,27 +617,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -644,34 +652,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Failed: Message: element click intercepted: Element &lt;li class="separator"&gt;...&lt;/li&gt; is not clickable at point (335, 391). Other element would receive the click: &lt;ul class="tab-items"&gt;...&lt;/ul&gt;
-  (Session info: chrome=125.0.6422.113)
-Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B77F32E]
-	(No symbol) [0x00007FF67B77CCF2]
-	(No symbol) [0x00007FF67B77A18B]
-	(No symbol) [0x00007FF67B779356]
-	(No symbol) [0x00007FF67B76B491]
-	(No symbol) [0x00007FF67B79C21A]
-	(No symbol) [0x00007FF67B76ADB6]
-	(No symbol) [0x00007FF67B79C430]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+          <t xml:space="preserve">Failed: Message: element click intercepted: Element &lt;li id="header_desktop_slim" class=""&gt;...&lt;/li&gt; is not clickable at point (175, 361). Other element would receive the click: &lt;div class="flex justify-between items-center pr-4"&gt;...&lt;/div&gt;
+  (Session info: chrome-headless-shell=125.0.6422.113)
+Stacktrace:
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E8052]
+	(No symbol) [0x001E63D8]
+	(No symbol) [0x001E425B]
+	(No symbol) [0x001E3823]
+	(No symbol) [0x001D85EF]
+	(No symbol) [0x00202DFC]
+	(No symbol) [0x001D8075]
+	(No symbol) [0x00203094]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -686,27 +696,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -721,27 +733,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -756,27 +770,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -791,27 +807,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -826,27 +844,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -861,27 +881,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -896,27 +918,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -931,27 +955,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -966,27 +992,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
@@ -1001,27 +1029,29 @@
         <is>
           <t xml:space="preserve">Failed: Message: 
 Stacktrace:
-	GetHandleVerifier [0x00007FF67B8F1F22+60322]
-	(No symbol) [0x00007FF67B86CE99]
-	(No symbol) [0x00007FF67B727EBA]
-	(No symbol) [0x00007FF67B777676]
-	(No symbol) [0x00007FF67B77773C]
-	(No symbol) [0x00007FF67B7BE967]
-	(No symbol) [0x00007FF67B79C25F]
-	(No symbol) [0x00007FF67B7BBC80]
-	(No symbol) [0x00007FF67B79BFC3]
-	(No symbol) [0x00007FF67B769617]
-	(No symbol) [0x00007FF67B76A211]
-	GetHandleVerifier [0x00007FF67BC0946D+3301613]
-	GetHandleVerifier [0x00007FF67BC53693+3605267]
-	GetHandleVerifier [0x00007FF67BC49410+3563664]
-	GetHandleVerifier [0x00007FF67B9A42F6+790390]
-	(No symbol) [0x00007FF67B8774DF]
-	(No symbol) [0x00007FF67B8733D4]
-	(No symbol) [0x00007FF67B873562]
-	(No symbol) [0x00007FF67B862F6F]
-	BaseThreadInitThunk [0x00007FFC3D267344+20]
-	RtlUserThreadStart [0x00007FFC3E6C26B1+33]
+	GetHandleVerifier [0x0031B793+45827]
+	(No symbol) [0x002ADB74]
+	(No symbol) [0x001A150F]
+	(No symbol) [0x001E20BC]
+	(No symbol) [0x001E216B]
+	(No symbol) [0x0021E0F2]
+	(No symbol) [0x00202E44]
+	(No symbol) [0x0021C034]
+	(No symbol) [0x00202B96]
+	(No symbol) [0x001D6998]
+	(No symbol) [0x001D751D]
+	GetHandleVerifier [0x005D43C3+2899763]
+	GetHandleVerifier [0x006277ED+3240797]
+	GetHandleVerifier [0x003A1264+593364]
+	GetHandleVerifier [0x003A818C+621820]
+	(No symbol) [0x002B6F54]
+	(No symbol) [0x002B3658]
+	(No symbol) [0x002B37F7]
+	(No symbol) [0x002A58AE]
+	BaseThreadInitThunk [0x75FBFCC9+25]
+	RtlGetAppContainerNamedObjectPath [0x778E7CBE+286]
+	RtlGetAppContainerNamedObjectPath [0x778E7C8E+238]
+	(No symbol) [0x00000000]
 </t>
         </is>
       </c>
